--- a/data/trans_orig/P14C31-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5B0EC4-A176-4C62-87F9-FD6F9A9F6C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D350D8-C7B1-454A-8B5E-781D56A7FE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28BF6605-75B9-4051-BCCE-A9559A3BA72B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0F3A87-08D0-475A-96FD-064EC745AD1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>71,12%</t>
   </si>
   <si>
-    <t>27,13%</t>
+    <t>25,76%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,7 +113,7 @@
     <t>15,93%</t>
   </si>
   <si>
-    <t>63,84%</t>
+    <t>66,09%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -128,7 +128,7 @@
     <t>12,95%</t>
   </si>
   <si>
-    <t>65,13%</t>
+    <t>62,11%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -209,67 +209,67 @@
     <t>69,17%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>71,48%</t>
   </si>
   <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>31,42%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>19,25%</t>
+    <t>18,58%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -278,7 +278,7 @@
     <t>12,11%</t>
   </si>
   <si>
-    <t>52,9%</t>
+    <t>56,76%</t>
   </si>
   <si>
     <t>49,99%</t>
@@ -293,16 +293,16 @@
     <t>30,52%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>30,28%</t>
+    <t>30,88%</t>
   </si>
   <si>
     <t>14,92%</t>
@@ -314,16 +314,16 @@
     <t>45,32%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>58,09%</t>
+    <t>57,92%</t>
   </si>
   <si>
     <t>35,09%</t>
@@ -335,10 +335,10 @@
     <t>24,16%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -347,7 +347,7 @@
     <t>82,93%</t>
   </si>
   <si>
-    <t>49,25%</t>
+    <t>46,94%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -356,13 +356,13 @@
     <t>92,27%</t>
   </si>
   <si>
-    <t>75,3%</t>
+    <t>75,83%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>53,06%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -371,7 +371,7 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>24,7%</t>
+    <t>24,17%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -383,55 +383,55 @@
     <t>58,05%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>6,67%</t>
@@ -440,25 +440,25 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>15,81%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -873,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EB7660-6C83-48FA-9170-DC7CA7DF2809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3063A63-27AA-4BC9-A64B-F2D5A8FB3EA7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C31-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D350D8-C7B1-454A-8B5E-781D56A7FE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB484B74-03C1-418A-B9B6-EAF7F5FCF55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0F3A87-08D0-475A-96FD-064EC745AD1A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1B11F30-F7B1-4B57-BF34-097939973214}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
-  <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2015 (Tasa respuesta: 1,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
+  <si>
+    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,7 +74,7 @@
     <t>59,63%</t>
   </si>
   <si>
-    <t>16,86%</t>
+    <t>16,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>71,12%</t>
   </si>
   <si>
-    <t>25,76%</t>
+    <t>25,3%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,26%</t>
+    <t>79,65%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,7 +113,7 @@
     <t>15,93%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>67,69%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -122,76 +122,76 @@
     <t>18,11%</t>
   </si>
   <si>
-    <t>81,56%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>42,59%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>41,89%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>61,03%</t>
+    <t>63,0%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -200,145 +200,145 @@
     <t>4,84%</t>
   </si>
   <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>74,95%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>57,92%</t>
+    <t>57,22%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>83,11%</t>
+    <t>82,59%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -347,7 +347,7 @@
     <t>82,93%</t>
   </si>
   <si>
-    <t>46,94%</t>
+    <t>52,73%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -356,13 +356,13 @@
     <t>92,27%</t>
   </si>
   <si>
-    <t>75,83%</t>
+    <t>73,1%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>53,06%</t>
+    <t>47,27%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -371,7 +371,7 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>24,17%</t>
+    <t>26,9%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -383,82 +383,79 @@
     <t>58,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>18,62%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -873,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3063A63-27AA-4BC9-A64B-F2D5A8FB3EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1C8F20-0762-4300-BDB9-F833FCBB614A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2147,10 +2144,10 @@
         <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2159,13 +2156,13 @@
         <v>7376</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,7 +2218,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
